--- a/natmiOut/OldD7/LR-pairs_lrc2p/Lama1-Itga2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Lama1-Itga2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -88,7 +91,7 @@
     <t>Itga2</t>
   </si>
   <si>
-    <t>ECs</t>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.327800493397676</v>
+        <v>0.02283333333333333</v>
       </c>
       <c r="H2">
-        <v>0.327800493397676</v>
+        <v>0.06850000000000001</v>
       </c>
       <c r="I2">
-        <v>0.9036509614664425</v>
+        <v>0.05477178157813095</v>
       </c>
       <c r="J2">
-        <v>0.9036509614664425</v>
+        <v>0.05477178157813096</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.29252836627688</v>
+        <v>1.740822</v>
       </c>
       <c r="N2">
-        <v>1.29252836627688</v>
+        <v>5.222466</v>
       </c>
       <c r="O2">
-        <v>0.4633521751997691</v>
+        <v>0.4863878955914668</v>
       </c>
       <c r="P2">
-        <v>0.4633521751997691</v>
+        <v>0.4863878955914669</v>
       </c>
       <c r="Q2">
-        <v>0.4236914361960533</v>
+        <v>0.039748769</v>
       </c>
       <c r="R2">
-        <v>0.4236914361960533</v>
+        <v>0.357738921</v>
       </c>
       <c r="S2">
-        <v>0.4187086386168389</v>
+        <v>0.02664033157958258</v>
       </c>
       <c r="T2">
-        <v>0.4187086386168389</v>
+        <v>0.02664033157958259</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.327800493397676</v>
+        <v>0.02283333333333333</v>
       </c>
       <c r="H3">
-        <v>0.327800493397676</v>
+        <v>0.06850000000000001</v>
       </c>
       <c r="I3">
-        <v>0.9036509614664425</v>
+        <v>0.05477178157813095</v>
       </c>
       <c r="J3">
-        <v>0.9036509614664425</v>
+        <v>0.05477178157813096</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.02732863164104</v>
+        <v>1.077748</v>
       </c>
       <c r="N3">
-        <v>1.02732863164104</v>
+        <v>3.233244</v>
       </c>
       <c r="O3">
-        <v>0.3682820188210154</v>
+        <v>0.3011241710513264</v>
       </c>
       <c r="P3">
-        <v>0.3682820188210154</v>
+        <v>0.3011241710513265</v>
       </c>
       <c r="Q3">
-        <v>0.3367588323334922</v>
+        <v>0.02460857933333333</v>
       </c>
       <c r="R3">
-        <v>0.3367588323334922</v>
+        <v>0.221477214</v>
       </c>
       <c r="S3">
-        <v>0.3327984003984131</v>
+        <v>0.01649310732471899</v>
       </c>
       <c r="T3">
-        <v>0.3327984003984131</v>
+        <v>0.016493107324719</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.327800493397676</v>
+        <v>0.02283333333333333</v>
       </c>
       <c r="H4">
-        <v>0.327800493397676</v>
+        <v>0.06850000000000001</v>
       </c>
       <c r="I4">
-        <v>0.9036509614664425</v>
+        <v>0.05477178157813095</v>
       </c>
       <c r="J4">
-        <v>0.9036509614664425</v>
+        <v>0.05477178157813096</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.469659131405571</v>
+        <v>0.03488166666666666</v>
       </c>
       <c r="N4">
-        <v>0.469659131405571</v>
+        <v>0.104645</v>
       </c>
       <c r="O4">
-        <v>0.1683658059792155</v>
+        <v>0.009745982326006345</v>
       </c>
       <c r="P4">
-        <v>0.1683658059792155</v>
+        <v>0.009745982326006345</v>
       </c>
       <c r="Q4">
-        <v>0.1539544950034701</v>
+        <v>0.0007964647222222222</v>
       </c>
       <c r="R4">
-        <v>0.1539544950034701</v>
+        <v>0.007168182500000001</v>
       </c>
       <c r="S4">
-        <v>0.1521439224511906</v>
+        <v>0.0005338048152243442</v>
       </c>
       <c r="T4">
-        <v>0.1521439224511906</v>
+        <v>0.0005338048152243442</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.0349507317719649</v>
+        <v>0.02283333333333333</v>
       </c>
       <c r="H5">
-        <v>0.0349507317719649</v>
+        <v>0.06850000000000001</v>
       </c>
       <c r="I5">
-        <v>0.09634903853355745</v>
+        <v>0.05477178157813095</v>
       </c>
       <c r="J5">
-        <v>0.09634903853355745</v>
+        <v>0.05477178157813096</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.29252836627688</v>
+        <v>0.7256300000000001</v>
       </c>
       <c r="N5">
-        <v>1.29252836627688</v>
+        <v>2.17689</v>
       </c>
       <c r="O5">
-        <v>0.4633521751997691</v>
+        <v>0.2027419510312003</v>
       </c>
       <c r="P5">
-        <v>0.4633521751997691</v>
+        <v>0.2027419510312003</v>
       </c>
       <c r="Q5">
-        <v>0.04517481223739924</v>
+        <v>0.01656855166666667</v>
       </c>
       <c r="R5">
-        <v>0.04517481223739924</v>
+        <v>0.149116965</v>
       </c>
       <c r="S5">
-        <v>0.04464353658293022</v>
+        <v>0.01110453785860502</v>
       </c>
       <c r="T5">
-        <v>0.04464353658293022</v>
+        <v>0.01110453785860503</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.0349507317719649</v>
+        <v>0.3395593333333333</v>
       </c>
       <c r="H6">
-        <v>0.0349507317719649</v>
+        <v>1.018678</v>
       </c>
       <c r="I6">
-        <v>0.09634903853355745</v>
+        <v>0.8145227578751427</v>
       </c>
       <c r="J6">
-        <v>0.09634903853355745</v>
+        <v>0.8145227578751428</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.02732863164104</v>
+        <v>1.740822</v>
       </c>
       <c r="N6">
-        <v>1.02732863164104</v>
+        <v>5.222466</v>
       </c>
       <c r="O6">
-        <v>0.3682820188210154</v>
+        <v>0.4863878955914668</v>
       </c>
       <c r="P6">
-        <v>0.3682820188210154</v>
+        <v>0.4863878955914669</v>
       </c>
       <c r="Q6">
-        <v>0.03590588744614572</v>
+        <v>0.5911123577719999</v>
       </c>
       <c r="R6">
-        <v>0.03590588744614572</v>
+        <v>5.320011219947999</v>
       </c>
       <c r="S6">
-        <v>0.03548361842260234</v>
+        <v>0.3961740101142485</v>
       </c>
       <c r="T6">
-        <v>0.03548361842260234</v>
+        <v>0.3961740101142486</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +832,433 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.0349507317719649</v>
+        <v>0.3395593333333333</v>
       </c>
       <c r="H7">
-        <v>0.0349507317719649</v>
+        <v>1.018678</v>
       </c>
       <c r="I7">
-        <v>0.09634903853355745</v>
+        <v>0.8145227578751427</v>
       </c>
       <c r="J7">
-        <v>0.09634903853355745</v>
+        <v>0.8145227578751428</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.469659131405571</v>
+        <v>1.077748</v>
       </c>
       <c r="N7">
-        <v>0.469659131405571</v>
+        <v>3.233244</v>
       </c>
       <c r="O7">
-        <v>0.1683658059792155</v>
+        <v>0.3011241710513264</v>
       </c>
       <c r="P7">
-        <v>0.1683658059792155</v>
+        <v>0.3011241710513265</v>
       </c>
       <c r="Q7">
-        <v>0.01641493032601013</v>
+        <v>0.3659593923813333</v>
       </c>
       <c r="R7">
-        <v>0.01641493032601013</v>
+        <v>3.293634531432</v>
       </c>
       <c r="S7">
-        <v>0.01622188352802489</v>
+        <v>0.2452724902675926</v>
       </c>
       <c r="T7">
-        <v>0.01622188352802489</v>
+        <v>0.2452724902675927</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.3395593333333333</v>
+      </c>
+      <c r="H8">
+        <v>1.018678</v>
+      </c>
+      <c r="I8">
+        <v>0.8145227578751427</v>
+      </c>
+      <c r="J8">
+        <v>0.8145227578751428</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.03488166666666666</v>
+      </c>
+      <c r="N8">
+        <v>0.104645</v>
+      </c>
+      <c r="O8">
+        <v>0.009745982326006345</v>
+      </c>
+      <c r="P8">
+        <v>0.009745982326006345</v>
+      </c>
+      <c r="Q8">
+        <v>0.01184439547888889</v>
+      </c>
+      <c r="R8">
+        <v>0.10659955931</v>
+      </c>
+      <c r="S8">
+        <v>0.007938324402381087</v>
+      </c>
+      <c r="T8">
+        <v>0.007938324402381089</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.3395593333333333</v>
+      </c>
+      <c r="H9">
+        <v>1.018678</v>
+      </c>
+      <c r="I9">
+        <v>0.8145227578751427</v>
+      </c>
+      <c r="J9">
+        <v>0.8145227578751428</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.7256300000000001</v>
+      </c>
+      <c r="N9">
+        <v>2.17689</v>
+      </c>
+      <c r="O9">
+        <v>0.2027419510312003</v>
+      </c>
+      <c r="P9">
+        <v>0.2027419510312003</v>
+      </c>
+      <c r="Q9">
+        <v>0.2463944390466667</v>
+      </c>
+      <c r="R9">
+        <v>2.21754995142</v>
+      </c>
+      <c r="S9">
+        <v>0.1651379330909204</v>
+      </c>
+      <c r="T9">
+        <v>0.1651379330909204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.05448866666666666</v>
+      </c>
+      <c r="H10">
+        <v>0.163466</v>
+      </c>
+      <c r="I10">
+        <v>0.1307054605467263</v>
+      </c>
+      <c r="J10">
+        <v>0.1307054605467264</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.740822</v>
+      </c>
+      <c r="N10">
+        <v>5.222466</v>
+      </c>
+      <c r="O10">
+        <v>0.4863878955914668</v>
+      </c>
+      <c r="P10">
+        <v>0.4863878955914669</v>
+      </c>
+      <c r="Q10">
+        <v>0.094855069684</v>
+      </c>
+      <c r="R10">
+        <v>0.853695627156</v>
+      </c>
+      <c r="S10">
+        <v>0.06357355389763571</v>
+      </c>
+      <c r="T10">
+        <v>0.06357355389763573</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.05448866666666666</v>
+      </c>
+      <c r="H11">
+        <v>0.163466</v>
+      </c>
+      <c r="I11">
+        <v>0.1307054605467263</v>
+      </c>
+      <c r="J11">
+        <v>0.1307054605467264</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.077748</v>
+      </c>
+      <c r="N11">
+        <v>3.233244</v>
+      </c>
+      <c r="O11">
+        <v>0.3011241710513264</v>
+      </c>
+      <c r="P11">
+        <v>0.3011241710513265</v>
+      </c>
+      <c r="Q11">
+        <v>0.05872505152266666</v>
+      </c>
+      <c r="R11">
+        <v>0.528525463704</v>
+      </c>
+      <c r="S11">
+        <v>0.03935857345901482</v>
+      </c>
+      <c r="T11">
+        <v>0.03935857345901483</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.05448866666666666</v>
+      </c>
+      <c r="H12">
+        <v>0.163466</v>
+      </c>
+      <c r="I12">
+        <v>0.1307054605467263</v>
+      </c>
+      <c r="J12">
+        <v>0.1307054605467264</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.03488166666666666</v>
+      </c>
+      <c r="N12">
+        <v>0.104645</v>
+      </c>
+      <c r="O12">
+        <v>0.009745982326006345</v>
+      </c>
+      <c r="P12">
+        <v>0.009745982326006345</v>
+      </c>
+      <c r="Q12">
+        <v>0.001900655507777778</v>
+      </c>
+      <c r="R12">
+        <v>0.01710589957</v>
+      </c>
+      <c r="S12">
+        <v>0.001273853108400914</v>
+      </c>
+      <c r="T12">
+        <v>0.001273853108400915</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.05448866666666666</v>
+      </c>
+      <c r="H13">
+        <v>0.163466</v>
+      </c>
+      <c r="I13">
+        <v>0.1307054605467263</v>
+      </c>
+      <c r="J13">
+        <v>0.1307054605467264</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.7256300000000001</v>
+      </c>
+      <c r="N13">
+        <v>2.17689</v>
+      </c>
+      <c r="O13">
+        <v>0.2027419510312003</v>
+      </c>
+      <c r="P13">
+        <v>0.2027419510312003</v>
+      </c>
+      <c r="Q13">
+        <v>0.03953861119333334</v>
+      </c>
+      <c r="R13">
+        <v>0.35584750074</v>
+      </c>
+      <c r="S13">
+        <v>0.02649948008167487</v>
+      </c>
+      <c r="T13">
+        <v>0.02649948008167488</v>
       </c>
     </row>
   </sheetData>
